--- a/Muestreo de Datos/Pago-MuestreoDatos.xlsx
+++ b/Muestreo de Datos/Pago-MuestreoDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059B2A8-685C-423B-95BC-7E24E26CFDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B83BAE-14D5-4893-A398-3CE99E6C6C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -396,9 +396,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -420,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1712,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1742,11 +1742,11 @@
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>27</v>
@@ -1770,21 +1770,21 @@
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1795,34 +1795,34 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2860,7 @@
       <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>299700</v>
       </c>
       <c r="E2" s="7" t="str">
@@ -2878,7 +2878,7 @@
       <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>249250</v>
       </c>
       <c r="E3" s="7" t="str">
@@ -2896,7 +2896,7 @@
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>99800</v>
       </c>
       <c r="E4" s="7" t="str">
@@ -2924,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03050BAE-7E3A-40B5-8C48-45808A7A863F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2958,7 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -2967,13 +2967,13 @@
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>300000</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <f>D2</f>
         <v>300000</v>
       </c>
@@ -2989,13 +2989,13 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>250000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E4" si="0">D3</f>
         <v>250000</v>
       </c>
@@ -3011,13 +3011,13 @@
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>100000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
